--- a/unittests/test_cases/data_test_unsure.xlsx
+++ b/unittests/test_cases/data_test_unsure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\FCM_Projects\FCM_Python\FCM_BCI\PyFcmBci\unittests\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3AA291-A754-4ECD-A627-9BDFF94204A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4874A4CB-2FE0-4776-A81A-AA65562D604D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,21 +47,6 @@
     <t>To</t>
   </si>
   <si>
-    <t>VL</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>VH</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -93,6 +78,21 @@
   </si>
   <si>
     <t>Unsure</t>
+  </si>
+  <si>
+    <t>+VL</t>
+  </si>
+  <si>
+    <t>+L</t>
+  </si>
+  <si>
+    <t>+M</t>
+  </si>
+  <si>
+    <t>+H</t>
+  </si>
+  <si>
+    <t>+VH</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="C1" sqref="C1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,56 +460,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -517,29 +517,29 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -547,34 +547,34 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -582,26 +582,26 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -609,34 +609,34 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +651,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="C1" sqref="C1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -664,56 +664,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -721,10 +721,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -732,18 +732,18 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -751,34 +751,34 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -786,26 +786,26 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -813,34 +813,34 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -853,7 +853,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="C1" sqref="C1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -866,56 +866,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -923,10 +923,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -934,18 +934,18 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -953,34 +953,34 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -988,26 +988,26 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1015,34 +1015,34 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1068,56 +1068,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1136,18 +1136,18 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1155,34 +1155,34 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1190,26 +1190,26 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1217,34 +1217,34 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="C1" sqref="C1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1270,56 +1270,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1327,10 +1327,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1338,18 +1338,18 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1357,34 +1357,34 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1392,58 +1392,58 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1456,7 +1456,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1469,56 +1469,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1537,18 +1537,18 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1556,90 +1556,90 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
